--- a/발표자료/테이블명세서.xlsx
+++ b/발표자료/테이블명세서.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Documents\GitHub\JavaProject\발표자료\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16422166-5675-48FC-9966-EDBE853F3AC7}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE96D643-B85A-448E-8BC3-A742F3407D8D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="220" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="220" uniqueCount="88">
   <si>
     <t>파일 테이블</t>
   </si>
@@ -334,6 +334,10 @@
   </si>
   <si>
     <t>가격(V,200)</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Menu</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -2196,7 +2200,7 @@
   <dimension ref="A1:J31"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
-      <selection activeCell="M9" sqref="M9"/>
+      <selection activeCell="C2" sqref="C2:D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6" x14ac:dyDescent="0.4"/>
@@ -2221,7 +2225,7 @@
       </c>
       <c r="B1" s="5"/>
       <c r="C1" s="5" t="s">
-        <v>67</v>
+        <v>87</v>
       </c>
       <c r="D1" s="5"/>
       <c r="E1" s="5" t="s">
@@ -2241,7 +2245,7 @@
       </c>
       <c r="B2" s="5"/>
       <c r="C2" s="5" t="s">
-        <v>67</v>
+        <v>87</v>
       </c>
       <c r="D2" s="5"/>
       <c r="E2" s="5" t="s">
